--- a/tools/IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/IP-Planning-Hardware-Requirements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="PFSense-OpenVPN-OpenStack-TUN" sheetId="14" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>Client</t>
   </si>
   <si>
-    <t>Remote-host</t>
-  </si>
-  <si>
     <t>OpenVPN</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>192.168.2.1</t>
+  </si>
+  <si>
+    <t>Server Target</t>
   </si>
 </sst>
 </file>
@@ -381,6 +381,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,22 +408,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -753,8 +753,8 @@
   </sheetPr>
   <dimension ref="B2:N7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -895,8 +895,8 @@
       <c r="N5" s="39"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>37</v>
+      <c r="B6" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>0</v>
@@ -913,31 +913,31 @@
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>4</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>2</v>
       </c>
-      <c r="J6" s="17">
-        <v>40</v>
-      </c>
-      <c r="K6" s="18">
-        <v>40</v>
-      </c>
-      <c r="L6" s="19">
-        <v>60</v>
-      </c>
-      <c r="M6" s="19">
-        <v>60</v>
-      </c>
-      <c r="N6" s="19">
+      <c r="J6" s="16">
+        <v>40</v>
+      </c>
+      <c r="K6" s="17">
+        <v>40</v>
+      </c>
+      <c r="L6" s="18">
+        <v>60</v>
+      </c>
+      <c r="M6" s="18">
+        <v>60</v>
+      </c>
+      <c r="N6" s="18">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>0</v>
@@ -963,16 +963,16 @@
       <c r="J7" s="12">
         <v>40</v>
       </c>
-      <c r="K7" s="19">
-        <v>40</v>
-      </c>
-      <c r="L7" s="19">
-        <v>60</v>
-      </c>
-      <c r="M7" s="19">
-        <v>60</v>
-      </c>
-      <c r="N7" s="19">
+      <c r="K7" s="18">
+        <v>40</v>
+      </c>
+      <c r="L7" s="18">
+        <v>60</v>
+      </c>
+      <c r="M7" s="18">
+        <v>60</v>
+      </c>
+      <c r="N7" s="18">
         <v>60</v>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
   <dimension ref="B2:N7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1082,13 +1082,13 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>3</v>
@@ -1127,7 +1127,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>3</v>
@@ -1143,14 +1143,14 @@
       <c r="N5" s="39"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>37</v>
+      <c r="B6" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>3</v>
@@ -1161,31 +1161,31 @@
       <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>4</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <v>2</v>
       </c>
-      <c r="J6" s="23">
-        <v>40</v>
-      </c>
-      <c r="K6" s="24">
-        <v>40</v>
-      </c>
-      <c r="L6" s="20">
-        <v>60</v>
-      </c>
-      <c r="M6" s="20">
-        <v>60</v>
-      </c>
-      <c r="N6" s="20">
+      <c r="J6" s="22">
+        <v>40</v>
+      </c>
+      <c r="K6" s="23">
+        <v>40</v>
+      </c>
+      <c r="L6" s="19">
+        <v>60</v>
+      </c>
+      <c r="M6" s="19">
+        <v>60</v>
+      </c>
+      <c r="N6" s="19">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>0</v>
@@ -1211,16 +1211,16 @@
       <c r="J7" s="12">
         <v>40</v>
       </c>
-      <c r="K7" s="20">
-        <v>40</v>
-      </c>
-      <c r="L7" s="20">
-        <v>60</v>
-      </c>
-      <c r="M7" s="20">
-        <v>60</v>
-      </c>
-      <c r="N7" s="20">
+      <c r="K7" s="19">
+        <v>40</v>
+      </c>
+      <c r="L7" s="19">
+        <v>60</v>
+      </c>
+      <c r="M7" s="19">
+        <v>60</v>
+      </c>
+      <c r="N7" s="19">
         <v>60</v>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
   </sheetPr>
   <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
@@ -1516,6 +1516,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:N2"/>
     <mergeCell ref="B4:B6"/>
@@ -1526,14 +1534,6 @@
     <mergeCell ref="L4:L6"/>
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="N4:N6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
